--- a/various/Office_hours.xlsx
+++ b/various/Office_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveyalferez/Documents/Courses Fall 2022-2023-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveyalferez/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63380E57-EE12-484B-9F6B-C9A5BA81F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C6501-DF25-2844-B43D-1115252AA81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42420" yWindow="1060" windowWidth="35840" windowHeight="20860" xr2:uid="{85D272E0-2592-C04F-895C-170E98B77D0E}"/>
+    <workbookView xWindow="540" yWindow="2500" windowWidth="30240" windowHeight="17700" xr2:uid="{85D272E0-2592-C04F-895C-170E98B77D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Monday</t>
   </si>
@@ -120,31 +120,25 @@
     <t>06:30 - 07:00</t>
   </si>
   <si>
-    <t>Faculty Meeting</t>
-  </si>
-  <si>
     <t>Dr. Harvey Alferez</t>
   </si>
   <si>
-    <t>Office Hours - Fall 2023</t>
-  </si>
-  <si>
-    <t>Senior Seminar</t>
-  </si>
-  <si>
-    <t>Southern Connections</t>
-  </si>
-  <si>
     <t>CIRC/Research</t>
   </si>
   <si>
-    <t xml:space="preserve">CIRC/Research </t>
-  </si>
-  <si>
-    <t>Prog in Data Analytics/Databases &amp; Data Warehouses</t>
-  </si>
-  <si>
-    <t>Senior Seminar (Lab)</t>
+    <t>Office Hours - Winter 2023</t>
+  </si>
+  <si>
+    <t>Data Visualization/Data Mining and Analytics</t>
+  </si>
+  <si>
+    <t>Senior Project</t>
+  </si>
+  <si>
+    <t>Faculty Meeting &amp; Lunch</t>
+  </si>
+  <si>
+    <t>MSc Project Review</t>
   </si>
 </sst>
 </file>
@@ -168,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +172,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,18 +207,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAEAAAA"/>
+        <fgColor rgb="FFFD4700"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -335,7 +323,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -344,15 +334,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,26 +357,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,42 +394,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,62 +420,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,8 +512,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFD4700"/>
       <color rgb="FFAEAAAA"/>
-      <color rgb="FFFD4700"/>
       <color rgb="FFFE0000"/>
     </mruColors>
   </colors>
@@ -517,7 +529,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -805,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,7 +828,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,7 +853,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -880,89 +892,91 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
+      <c r="B6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="23" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -970,138 +984,136 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="17"/>
+      <c r="B14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="40"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="40"/>
-      <c r="C21" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="32" t="s">
-        <v>35</v>
+      <c r="C21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="33"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="31"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -1112,28 +1124,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="D19:D22"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E8:E11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D21"/>
     <mergeCell ref="C21:C25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="2"/>

--- a/various/Office_hours.xlsx
+++ b/various/Office_hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveyalferez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveyalferez/Documents/GitHub/harveyalferez.github.io/various/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C6501-DF25-2844-B43D-1115252AA81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B991E6-FD51-5C4F-B6CB-60C134104BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="2500" windowWidth="30240" windowHeight="17700" xr2:uid="{85D272E0-2592-C04F-895C-170E98B77D0E}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17700" xr2:uid="{85D272E0-2592-C04F-895C-170E98B77D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Monday</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>MSc Project Review</t>
+  </si>
+  <si>
+    <t>04:00 - 04:30</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -275,17 +278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -333,26 +325,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -372,20 +344,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,109 +407,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,7 +800,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,24 +814,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -892,91 +864,89 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>29</v>
+      <c r="F6" s="23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="38"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -984,55 +954,55 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="49" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1040,43 +1010,43 @@
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="45"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="46"/>
+        <v>35</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1084,36 +1054,36 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="35"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -1123,29 +1093,27 @@
       <c r="A27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F6:F7"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="F6:F11"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="E21:E25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="2"/>
